--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_11-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_11-36.xlsx
@@ -41,6 +41,9 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -65,9 +68,27 @@
     <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>SULBIN 750MG VIAL</t>
   </si>
   <si>
@@ -96,9 +117,6 @@
   </si>
   <si>
     <t>جنتيانا نقط</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>2:0</t>
@@ -723,13 +741,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -741,7 +759,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -749,13 +767,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -775,17 +793,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -793,7 +811,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -801,17 +819,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -819,7 +837,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -827,13 +845,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -859,11 +877,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -885,7 +903,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -905,17 +923,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>149.5</v>
+        <v>37</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -931,17 +949,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -949,7 +967,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -957,17 +975,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -975,7 +993,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -983,13 +1001,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1001,7 +1019,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1015,7 +1033,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>56</v>
+        <v>149.5</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1027,7 +1045,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1041,11 +1059,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>66.640000000000001</v>
+        <v>80</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1053,7 +1071,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1061,17 +1079,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1079,7 +1097,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1087,51 +1105,155 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="26.25" customHeight="1">
-      <c r="K20" s="10">
-        <v>935.13999999999999</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="11">
-        <v>32</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c t="s" r="F21" s="12">
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
         <v>33</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c t="s" r="I21" s="14">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>56</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
         <v>34</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>9</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>66.640000000000001</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c t="s" r="N21" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>25</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>14</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>50</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c t="s" r="N23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="10">
+        <v>1110.1400000000001</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="11">
+        <v>38</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c t="s" r="F25" s="12">
+        <v>39</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c t="s" r="I25" s="14">
+        <v>40</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1187,10 +1309,22 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
